--- a/Questionnaire_Sumba_2_stakeholder  willingness to pay.xlsx
+++ b/Questionnaire_Sumba_2_stakeholder  willingness to pay.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danieldaniel\Desktop\Data_PhD_D Daniel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilias\OneDrive\Desktop\Sumba\Coding\Indonesia-logistic_regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23255F-BB94-4741-A62D-A93903AE6D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="8364"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -499,7 +500,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -948,12 +949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE908"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31244,14 +31245,14 @@
       <c r="I908" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE36"/>
+  <autoFilter ref="A1:AE36" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56503,7 +56504,7 @@
       <c r="Z907" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D127"/>
+  <autoFilter ref="A1:D127" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
